--- a/biology/Botanique/Orb/Orb..xlsx
+++ b/biology/Botanique/Orb/Orb..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Henry Dessalines d'Orbigny est un botaniste et un géologue français, né le 2 décembre 1806 à Couëron (Loire-Inférieure) et mort le 14 février 1876 à Paris.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Henry est le fils de Charles Marie d'Orbigny (1770-1856), créole blanc de Saint-Domingue devenu médecin, et le frère cadet du naturaliste Alcide Dessalines d'Orbigny (1802-1857). Il commence ses études à La Rochelle et part à Paris étudier la médecine. Il succède, en 1834, à Louis Cordier (1777-1861), aide-préparateur en géologie au Muséum national d'histoire naturelle. Il devient aide-naturaliste en 1837 mais doit quitter ses fonctions en 1864 à cause de sa santé défaillante. Il est alors remplacé par Stanislas Étienne Meunier (1843-1925).
-Il dirige la parution du Dictionnaire universel d’histoire naturelle (1841-1849 en seize volumes, seconde édition en 1861), considéré comme l’une des meilleures encyclopédies d’histoire naturelle du XIXe siècle (réédité partiellement en 2007[2]).
-Il est inhumé au cimetière du Père-Lachaise (95e division)[3].
+Il dirige la parution du Dictionnaire universel d’histoire naturelle (1841-1849 en seize volumes, seconde édition en 1861), considéré comme l’une des meilleures encyclopédies d’histoire naturelle du XIXe siècle (réédité partiellement en 2007).
+Il est inhumé au cimetière du Père-Lachaise (95e division).
 </t>
         </is>
       </c>
